--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/FCS Software Solutions Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/FCS Software Solutions Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -684,7 +684,7 @@
         <v>7.99</v>
       </c>
       <c r="P2">
-        <v>5.119230769230769</v>
+        <v>5.12</v>
       </c>
       <c r="Q2">
         <v>1.88</v>
@@ -699,7 +699,7 @@
         <v>0.14</v>
       </c>
       <c r="U2">
-        <v>20.514</v>
+        <v>20.51</v>
       </c>
       <c r="V2">
         <v>5.92</v>
@@ -717,7 +717,7 @@
         <v>1.74</v>
       </c>
       <c r="AA2">
-        <v>3.876</v>
+        <v>3.88</v>
       </c>
       <c r="AB2">
         <v>83.09</v>
@@ -785,7 +785,7 @@
         <v>12.53</v>
       </c>
       <c r="P3">
-        <v>5.119230769230769</v>
+        <v>5.12</v>
       </c>
       <c r="Q3">
         <v>0.27</v>
@@ -800,7 +800,7 @@
         <v>0.22</v>
       </c>
       <c r="U3">
-        <v>20.514</v>
+        <v>20.51</v>
       </c>
       <c r="V3">
         <v>0.73</v>
@@ -818,7 +818,7 @@
         <v>4.47</v>
       </c>
       <c r="AA3">
-        <v>3.876</v>
+        <v>3.88</v>
       </c>
       <c r="AB3">
         <v>90.83</v>
@@ -886,7 +886,7 @@
         <v>37.22</v>
       </c>
       <c r="P4">
-        <v>5.119230769230769</v>
+        <v>5.12</v>
       </c>
       <c r="Q4">
         <v>5.51</v>
@@ -901,7 +901,7 @@
         <v>0.14</v>
       </c>
       <c r="U4">
-        <v>20.514</v>
+        <v>20.51</v>
       </c>
       <c r="V4">
         <v>0.49</v>
@@ -919,7 +919,7 @@
         <v>31.97</v>
       </c>
       <c r="AA4">
-        <v>3.876</v>
+        <v>3.88</v>
       </c>
       <c r="AB4">
         <v>105.34</v>
@@ -987,7 +987,7 @@
         <v>48.23</v>
       </c>
       <c r="P5">
-        <v>5.119230769230769</v>
+        <v>5.12</v>
       </c>
       <c r="Q5">
         <v>23.12</v>
@@ -1002,7 +1002,7 @@
         <v>0.16</v>
       </c>
       <c r="U5">
-        <v>20.514</v>
+        <v>20.51</v>
       </c>
       <c r="V5">
         <v>0.24</v>
@@ -1020,7 +1020,7 @@
         <v>39.17</v>
       </c>
       <c r="AA5">
-        <v>3.876</v>
+        <v>3.88</v>
       </c>
       <c r="AB5">
         <v>99.04000000000001</v>
@@ -1100,10 +1100,10 @@
         <v>120.44</v>
       </c>
       <c r="T6">
-        <v>0.8511111111111112</v>
+        <v>0.85</v>
       </c>
       <c r="U6">
-        <v>20.514</v>
+        <v>20.51</v>
       </c>
       <c r="V6">
         <v>0.72</v>
@@ -1121,7 +1121,7 @@
         <v>4.63</v>
       </c>
       <c r="AA6">
-        <v>3.876</v>
+        <v>3.88</v>
       </c>
       <c r="AB6">
         <v>104.05</v>
@@ -1189,7 +1189,7 @@
         <v>33.85</v>
       </c>
       <c r="P7">
-        <v>5.119230769230769</v>
+        <v>5.12</v>
       </c>
       <c r="Q7">
         <v>0.73</v>
@@ -1201,7 +1201,7 @@
         <v>341.23</v>
       </c>
       <c r="T7">
-        <v>0.8511111111111112</v>
+        <v>0.85</v>
       </c>
       <c r="U7">
         <v>0.33</v>
@@ -1290,7 +1290,7 @@
         <v>29.13</v>
       </c>
       <c r="P8">
-        <v>5.119230769230769</v>
+        <v>5.12</v>
       </c>
       <c r="Q8">
         <v>0.8</v>
@@ -1391,7 +1391,7 @@
         <v>26.71</v>
       </c>
       <c r="P9">
-        <v>5.119230769230769</v>
+        <v>5.12</v>
       </c>
       <c r="Q9">
         <v>29.58</v>
@@ -1566,7 +1566,7 @@
         <v>588.6900000000001</v>
       </c>
       <c r="G11">
-        <v>9.678749999999999</v>
+        <v>9.68</v>
       </c>
       <c r="H11">
         <v>0.63</v>
@@ -1673,7 +1673,7 @@
         <v>0.87</v>
       </c>
       <c r="I12">
-        <v>6.284000000000001</v>
+        <v>6.28</v>
       </c>
       <c r="J12">
         <v>0.98</v>
@@ -1736,7 +1736,7 @@
         <v>566.34</v>
       </c>
       <c r="AD12">
-        <v>29.09611111111111</v>
+        <v>29.1</v>
       </c>
       <c r="AE12">
         <v>20.36</v>
@@ -1768,7 +1768,7 @@
         <v>375.73</v>
       </c>
       <c r="G13">
-        <v>9.678749999999999</v>
+        <v>9.68</v>
       </c>
       <c r="H13">
         <v>1.53</v>
@@ -1825,7 +1825,7 @@
         <v>0.97</v>
       </c>
       <c r="Z13">
-        <v>16.51526315789474</v>
+        <v>16.52</v>
       </c>
       <c r="AA13">
         <v>5.46</v>
@@ -1869,13 +1869,13 @@
         <v>336.2</v>
       </c>
       <c r="G14">
-        <v>9.678749999999999</v>
+        <v>9.68</v>
       </c>
       <c r="H14">
         <v>1.62</v>
       </c>
       <c r="I14">
-        <v>6.284000000000001</v>
+        <v>6.28</v>
       </c>
       <c r="J14">
         <v>4.14</v>
@@ -1976,7 +1976,7 @@
         <v>32.2</v>
       </c>
       <c r="I15">
-        <v>6.284000000000001</v>
+        <v>6.28</v>
       </c>
       <c r="J15">
         <v>2.78</v>
@@ -2039,7 +2039,7 @@
         <v>378.73</v>
       </c>
       <c r="AD15">
-        <v>29.09611111111111</v>
+        <v>29.1</v>
       </c>
       <c r="AE15">
         <v>31.48</v>
@@ -2178,7 +2178,7 @@
         <v>32.25</v>
       </c>
       <c r="I17">
-        <v>6.284000000000001</v>
+        <v>6.28</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -2505,7 +2505,7 @@
         <v>0.14</v>
       </c>
       <c r="Q20">
-        <v>13.38611111111111</v>
+        <v>13.39</v>
       </c>
       <c r="R20">
         <v>181.35</v>
@@ -2576,13 +2576,13 @@
         <v>281.19</v>
       </c>
       <c r="G21">
-        <v>9.678749999999999</v>
+        <v>9.68</v>
       </c>
       <c r="H21">
         <v>4.98</v>
       </c>
       <c r="I21">
-        <v>6.284000000000001</v>
+        <v>6.28</v>
       </c>
       <c r="J21">
         <v>0.42</v>
@@ -2606,7 +2606,7 @@
         <v>0.13</v>
       </c>
       <c r="Q21">
-        <v>13.38611111111111</v>
+        <v>13.39</v>
       </c>
       <c r="R21">
         <v>176.84</v>
